--- a/server/assets/INTO工作室补贴业绩查询1.31.xlsx
+++ b/server/assets/INTO工作室补贴业绩查询1.31.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="19400"/>
+    <workbookView windowWidth="31700" windowHeight="12140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -627,7 +627,7 @@
     <t>Amy</t>
   </si>
   <si>
-    <t>0x5b1003eA0f799BD05b6E9750d0E79c570Ab52463</t>
+    <t>0xb4602Eda36C3f35BFFB5A21d4b82806e79E50ee1</t>
   </si>
   <si>
     <t>Mr.MM</t>
@@ -1979,8 +1979,8 @@
   <sheetPr/>
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="60" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
